--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_3_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_3_bus.xlsx
@@ -8706,13 +8706,13 @@
         <v>1.028595169205407</v>
       </c>
       <c r="O2">
-        <v>0.3008352244733398</v>
+        <v>0.30083522447334</v>
       </c>
       <c r="P2">
-        <v>0.8956801732223714</v>
+        <v>0.8956801732223716</v>
       </c>
       <c r="Q2">
-        <v>7.519823840684552</v>
+        <v>7.519823840684557</v>
       </c>
       <c r="R2">
         <v>-116.5020886521835</v>
@@ -8762,19 +8762,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9884825067706161</v>
+        <v>0.9884825067706164</v>
       </c>
       <c r="O3">
-        <v>0.1504176122405691</v>
+        <v>0.1504176122405693</v>
       </c>
       <c r="P3">
-        <v>0.9215286981526681</v>
+        <v>0.9215286981526682</v>
       </c>
       <c r="Q3">
-        <v>3.904287434446784</v>
+        <v>3.90428743444679</v>
       </c>
       <c r="R3">
-        <v>-116.502088644305</v>
+        <v>-116.5020886443051</v>
       </c>
       <c r="S3">
         <v>175.8115568314738</v>
@@ -8821,16 +8821,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9884825067627567</v>
+        <v>0.988482506762757</v>
       </c>
       <c r="O4">
-        <v>0.1504176122445311</v>
+        <v>0.1504176122445312</v>
       </c>
       <c r="P4">
-        <v>0.921528698161422</v>
+        <v>0.9215286981614221</v>
       </c>
       <c r="Q4">
-        <v>3.904287434847261</v>
+        <v>3.904287434847269</v>
       </c>
       <c r="R4">
         <v>-116.502088636477</v>
@@ -8847,40 +8847,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.912620617147884</v>
+        <v>1.912620617147885</v>
       </c>
       <c r="D5">
-        <v>1.912620617147884</v>
+        <v>1.912620617147885</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.08504056335918</v>
+        <v>22.08504056335919</v>
       </c>
       <c r="G5">
-        <v>22.08504056335918</v>
+        <v>22.08504056335919</v>
       </c>
       <c r="H5">
-        <v>7.895175922947224</v>
+        <v>7.895175922947228</v>
       </c>
       <c r="I5">
-        <v>7.335082718453457</v>
+        <v>7.335082718453452</v>
       </c>
       <c r="J5">
-        <v>1.477816378918004</v>
+        <v>1.477816378918005</v>
       </c>
       <c r="K5">
-        <v>5.558163489027946</v>
+        <v>5.558163489027939</v>
       </c>
       <c r="L5">
-        <v>1.477816378890884</v>
+        <v>1.477816378890889</v>
       </c>
       <c r="M5">
-        <v>5.558163488980837</v>
+        <v>5.558163488980824</v>
       </c>
       <c r="N5">
-        <v>0.9526279648094103</v>
+        <v>0.9526279648094104</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -8889,7 +8889,7 @@
         <v>0.9526279648097039</v>
       </c>
       <c r="Q5">
-        <v>-3.588354961759716E-13</v>
+        <v>-3.462186233304115E-13</v>
       </c>
       <c r="R5">
         <v>0</v>
